--- a/Model/MILP/Data.xlsx
+++ b/Model/MILP/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\This PC\Desktop [Storage]\fyp\Model\MILP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB861AF2-CEF1-4BD6-9DF6-4B163496B138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C58B4B-F2FD-4B6E-85AA-B7211081008B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Raw Data'!$A$1:$F$103</definedName>
     <definedName name="bot2_changeovers">'Bot2'!$B$2:$F$6</definedName>
     <definedName name="bot2_demand">'Bot2'!$B$9:$F$13</definedName>
-    <definedName name="bot2_production">'Bot2'!$B$16:$F$16</definedName>
-    <definedName name="bot2_ss">'Bot2'!$B$19:$F$19</definedName>
-    <definedName name="test">'Bot2'!$B$19:$F$19</definedName>
+    <definedName name="bot2_production">'Bot2'!$B$12:$F$12</definedName>
+    <definedName name="bot2_ss">'Bot2'!$B$15:$F$15</definedName>
+    <definedName name="test">'Bot2'!$B$15:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -557,7 +557,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -569,7 +568,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8587,7 +8587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F89" sqref="F89:F103"/>
     </sheetView>
   </sheetViews>
@@ -11077,10 +11077,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A89FD502-AA78-41EF-8CB5-52773B43543B}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11089,346 +11089,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>0.5</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>0.75</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.5</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>0.5</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>0.25</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>0.25</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.75</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>0.75</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>0.5</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.5</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>0.5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.25</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0.25</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>0.25</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.75</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.5</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>1788</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="3">
         <v>962</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>1141</v>
       </c>
-      <c r="E9" s="2">
-        <v>658</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E9" s="3">
+        <v>1658</v>
+      </c>
+      <c r="F9" s="4">
         <v>1038</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2">
-        <f>ROUND(B$9/4,0)</f>
-        <v>447</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" ref="C10:F13" si="0">ROUND(C$9/4,0)</f>
-        <v>241</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="F10" s="3">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="14"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <f t="shared" ref="B11:B13" si="1">ROUND(B$9/4,0)</f>
-        <v>447</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="F11" s="3">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="1"/>
-        <v>447</v>
-      </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-      <c r="D12" s="2">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" si="0"/>
-        <v>260</v>
+      <c r="A11" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>10</v>
+      </c>
+      <c r="D12" s="3">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
-        <v>4</v>
-      </c>
-      <c r="B13" s="4">
-        <f t="shared" si="1"/>
-        <v>447</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>241</v>
-      </c>
-      <c r="D13" s="4">
-        <f t="shared" si="0"/>
-        <v>285</v>
-      </c>
-      <c r="E13" s="4">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="B15" s="13" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B16" s="4">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4">
-        <v>30</v>
-      </c>
-      <c r="D16" s="4">
-        <v>30</v>
-      </c>
-      <c r="E16" s="4">
-        <v>30</v>
-      </c>
-      <c r="F16" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B15" s="3">
         <v>894</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C15" s="3">
         <v>481</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D15" s="3">
         <v>571</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E15" s="3">
         <v>329</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F15" s="4">
         <v>519</v>
       </c>
     </row>
